--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\Archive\Robs Projects\Maniac.Mansion.Disassembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\Archive\Robs Projects\Maniac.Mansion.Disassembly\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="12495" windowHeight="8385" tabRatio="702" activeTab="3"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="12495" windowHeight="11310" tabRatio="702" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="856">
   <si>
     <t>Purpose</t>
   </si>
@@ -2602,6 +2602,9 @@
   </si>
   <si>
     <t>Var[104]</t>
+  </si>
+  <si>
+    <t>1 = Always On</t>
   </si>
 </sst>
 </file>
@@ -22402,7 +22405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
@@ -29292,13 +29295,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -29326,6 +29332,17 @@
       </c>
       <c r="D2" t="s">
         <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C3" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="12495" windowHeight="11310" tabRatio="702" activeTab="7"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="12495" windowHeight="11010" tabRatio="702" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -4179,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22405,8 +22405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29297,7 +29297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\Archive\Robs Projects\Maniac.Mansion.Disassembly\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\Projects\Maniac.Mansion.Disassembly\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="12495" windowHeight="11010" tabRatio="702" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="29784" windowHeight="14100" tabRatio="702" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="857">
   <si>
     <t>Purpose</t>
   </si>
@@ -2605,12 +2605,15 @@
   </si>
   <si>
     <t>1 = Always On</t>
+  </si>
+  <si>
+    <t>Room 36 Entered (Storage room next to Pool)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2939,13 +2942,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
@@ -2953,13 +2956,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3164,12 +3167,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3206,13 +3209,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>779</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>777</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>778</v>
       </c>
@@ -3252,10 +3255,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>802</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>781</v>
       </c>
@@ -3272,7 +3275,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3281,7 +3284,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -3290,7 +3293,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -3299,7 +3302,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -3308,7 +3311,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>795</v>
       </c>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>785</v>
       </c>
@@ -3326,7 +3329,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>786</v>
       </c>
@@ -3335,7 +3338,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>787</v>
       </c>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>788</v>
       </c>
@@ -3353,7 +3356,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>789</v>
       </c>
@@ -3362,7 +3365,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>790</v>
       </c>
@@ -3371,7 +3374,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>791</v>
       </c>
@@ -3380,7 +3383,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>792</v>
       </c>
@@ -3389,7 +3392,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>793</v>
       </c>
@@ -3398,7 +3401,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>794</v>
       </c>
@@ -3421,13 +3424,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4179,21 +4182,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -21214,7 +21217,7 @@
       <c r="XFC56" s="2"/>
       <c r="XFD56" s="2"/>
     </row>
-    <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21228,7 +21231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21242,7 +21245,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21256,7 +21259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -21267,7 +21270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -21278,7 +21281,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -21289,7 +21292,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -21300,7 +21303,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -21311,7 +21314,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -21322,7 +21325,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -21344,7 +21347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -21352,7 +21355,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -21363,7 +21366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -21374,7 +21377,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -21385,7 +21388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -21396,7 +21399,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -21407,7 +21410,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -21418,7 +21421,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -21429,7 +21432,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -21440,7 +21443,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -21462,7 +21465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -21473,7 +21476,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -21484,7 +21487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -21495,7 +21498,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -21509,7 +21512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -21523,7 +21526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -21534,7 +21537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -21545,7 +21548,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -21556,7 +21559,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -21567,7 +21570,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -21578,7 +21581,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -21589,7 +21592,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -21597,7 +21600,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -21611,7 +21614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -21622,7 +21625,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -21633,7 +21636,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -21647,7 +21650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -21661,7 +21664,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -21672,7 +21675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21683,7 +21686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21694,7 +21697,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21705,7 +21708,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -21716,7 +21719,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -21727,7 +21730,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -21741,7 +21744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -21752,7 +21755,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -21763,7 +21766,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -21774,7 +21777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -21785,7 +21788,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -21796,7 +21799,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -21807,7 +21810,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -21818,7 +21821,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -21829,7 +21832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -21840,7 +21843,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -21851,7 +21854,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -21862,7 +21865,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -21876,7 +21879,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -21890,7 +21893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -21915,7 +21918,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -21926,7 +21929,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -21937,7 +21940,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -21948,7 +21951,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -21959,7 +21962,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -21970,7 +21973,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -21981,7 +21984,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -21992,7 +21995,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -22003,7 +22006,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -22014,7 +22017,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -22028,7 +22031,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -22039,7 +22042,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -22050,7 +22053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -22061,7 +22064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -22075,7 +22078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -22097,7 +22100,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -22111,7 +22114,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -22122,7 +22125,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22133,7 +22136,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22144,7 +22147,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22166,7 +22169,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22177,7 +22180,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22188,7 +22191,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22202,7 +22205,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22213,7 +22216,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -22227,7 +22230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -22238,7 +22241,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -22246,7 +22249,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -22260,7 +22263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -22274,7 +22277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -22288,7 +22291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -22299,7 +22302,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -22313,7 +22316,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -22330,7 +22333,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>154</v>
       </c>
@@ -22341,7 +22344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>155</v>
       </c>
@@ -22352,7 +22355,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>156</v>
       </c>
@@ -22363,7 +22366,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>157</v>
       </c>
@@ -22374,7 +22377,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>158</v>
       </c>
@@ -22403,24 +22406,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -22440,7 +22443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -22460,7 +22463,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -22471,7 +22474,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -22494,7 +22497,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
@@ -22514,7 +22517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17</v>
       </c>
@@ -22534,7 +22537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -22551,7 +22554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -22562,7 +22565,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -22582,7 +22585,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22</v>
       </c>
@@ -22602,7 +22605,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
@@ -22636,7 +22639,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25</v>
       </c>
@@ -22650,7 +22653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -22658,7 +22661,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -22678,7 +22681,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -22692,7 +22695,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>29</v>
       </c>
@@ -22706,7 +22709,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -22726,7 +22729,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -22743,7 +22746,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>32</v>
       </c>
@@ -22751,7 +22754,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>33</v>
       </c>
@@ -22759,7 +22762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34</v>
       </c>
@@ -22767,7 +22770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35</v>
       </c>
@@ -22775,7 +22778,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
@@ -22783,7 +22786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>37</v>
       </c>
@@ -22791,7 +22794,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>38</v>
       </c>
@@ -22799,7 +22802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>39</v>
       </c>
@@ -22807,7 +22810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>40</v>
       </c>
@@ -22815,7 +22818,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>41</v>
       </c>
@@ -22823,7 +22826,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>42</v>
       </c>
@@ -22831,7 +22834,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>43</v>
       </c>
@@ -22839,7 +22842,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>44</v>
       </c>
@@ -22847,7 +22850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45</v>
       </c>
@@ -22855,7 +22858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -22863,7 +22866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -22871,7 +22874,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -22885,7 +22888,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -22925,7 +22928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>50</v>
       </c>
@@ -22939,7 +22942,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>54</v>
       </c>
@@ -22953,7 +22956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -22981,7 +22984,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -23004,7 +23007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -23012,7 +23015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>59</v>
       </c>
@@ -23020,7 +23023,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>60</v>
       </c>
@@ -23028,7 +23031,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>61</v>
       </c>
@@ -23036,7 +23039,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>62</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>63</v>
       </c>
@@ -23074,7 +23077,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>64</v>
       </c>
@@ -23088,7 +23091,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>65</v>
       </c>
@@ -23102,7 +23105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>66</v>
       </c>
@@ -23122,7 +23125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>67</v>
       </c>
@@ -23130,7 +23133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>68</v>
       </c>
@@ -23150,7 +23153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>69</v>
       </c>
@@ -23164,7 +23167,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>70</v>
       </c>
@@ -23178,7 +23181,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>71</v>
       </c>
@@ -23189,7 +23192,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>72</v>
       </c>
@@ -23200,7 +23203,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>73</v>
       </c>
@@ -23220,7 +23223,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>74</v>
       </c>
@@ -23231,7 +23234,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>75</v>
       </c>
@@ -23242,7 +23245,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>76</v>
       </c>
@@ -23265,7 +23268,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>78</v>
       </c>
@@ -23279,7 +23282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>79</v>
       </c>
@@ -23290,7 +23293,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>80</v>
       </c>
@@ -23304,7 +23307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>81</v>
       </c>
@@ -23318,7 +23321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>82</v>
       </c>
@@ -23338,7 +23341,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>83</v>
       </c>
@@ -23346,7 +23349,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>84</v>
       </c>
@@ -23360,7 +23363,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>85</v>
       </c>
@@ -23374,7 +23377,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>86</v>
       </c>
@@ -23382,7 +23385,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>87</v>
       </c>
@@ -23390,7 +23393,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>89</v>
       </c>
@@ -23404,7 +23407,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>90</v>
       </c>
@@ -23412,7 +23415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>90</v>
       </c>
@@ -23423,7 +23426,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>91</v>
       </c>
@@ -23431,7 +23434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>91</v>
       </c>
@@ -23445,7 +23448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>92</v>
       </c>
@@ -23459,12 +23462,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>96</v>
       </c>
@@ -23478,7 +23481,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>97</v>
       </c>
@@ -23486,7 +23489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>98</v>
       </c>
@@ -23494,7 +23497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>99</v>
       </c>
@@ -23502,12 +23505,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>101</v>
       </c>
@@ -23521,7 +23524,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>102</v>
       </c>
@@ -23535,7 +23538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>103</v>
       </c>
@@ -23555,7 +23558,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>104</v>
       </c>
@@ -23569,7 +23572,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>105</v>
       </c>
@@ -23580,7 +23583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>106</v>
       </c>
@@ -23600,7 +23603,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>107</v>
       </c>
@@ -23608,7 +23611,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>108</v>
       </c>
@@ -23628,7 +23631,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>109</v>
       </c>
@@ -23642,7 +23645,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>110</v>
       </c>
@@ -23656,22 +23659,28 @@
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>856</v>
+      </c>
+      <c r="E97" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>114</v>
       </c>
@@ -23685,7 +23694,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>116</v>
       </c>
@@ -23699,12 +23708,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>117</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>774</v>
+      </c>
+      <c r="E100" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>118</v>
       </c>
@@ -23718,7 +23736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>119</v>
       </c>
@@ -23732,7 +23750,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>120</v>
       </c>
@@ -23746,7 +23764,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>122</v>
       </c>
@@ -23766,91 +23784,86 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>126</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>127</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" t="s">
-        <v>22</v>
+        <v>804</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>804</v>
-      </c>
-      <c r="E108" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>135</v>
+      </c>
+      <c r="C109" t="s">
+        <v>753</v>
+      </c>
+      <c r="E109" t="s">
         <v>217</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>134</v>
-      </c>
-      <c r="C109" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>753</v>
+        <v>589</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
-      </c>
-      <c r="F110" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
-        <v>589</v>
-      </c>
-      <c r="E111" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>137</v>
-      </c>
-      <c r="C112" t="s">
         <v>559</v>
       </c>
     </row>
@@ -23871,12 +23884,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23884,7 +23897,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -23892,7 +23905,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -23900,7 +23913,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -23908,7 +23921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -23916,7 +23929,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -23924,7 +23937,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -23932,7 +23945,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -23940,7 +23953,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -23948,7 +23961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -23956,7 +23969,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -23964,7 +23977,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -23972,7 +23985,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19</v>
       </c>
@@ -23980,7 +23993,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
@@ -23988,7 +24001,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -23996,7 +24009,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -24004,7 +24017,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -24012,7 +24025,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -24020,7 +24033,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -24028,7 +24041,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>27</v>
       </c>
@@ -24036,7 +24049,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28</v>
       </c>
@@ -24044,7 +24057,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32</v>
       </c>
@@ -24052,7 +24065,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>33</v>
       </c>
@@ -24060,7 +24073,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>34</v>
       </c>
@@ -24068,7 +24081,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>37</v>
       </c>
@@ -24076,7 +24089,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39</v>
       </c>
@@ -24084,7 +24097,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
@@ -24092,7 +24105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41</v>
       </c>
@@ -24100,7 +24113,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42</v>
       </c>
@@ -24108,7 +24121,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43</v>
       </c>
@@ -24116,7 +24129,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44</v>
       </c>
@@ -24124,7 +24137,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45</v>
       </c>
@@ -24132,7 +24145,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>54</v>
       </c>
@@ -24140,7 +24153,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>55</v>
       </c>
@@ -24148,7 +24161,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>56</v>
       </c>
@@ -24156,7 +24169,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>59</v>
       </c>
@@ -24164,7 +24177,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>60</v>
       </c>
@@ -24172,7 +24185,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>62</v>
       </c>
@@ -24180,7 +24193,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>69</v>
       </c>
@@ -24204,15 +24217,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -24235,7 +24248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24249,7 +24262,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24263,7 +24276,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24274,7 +24287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -24291,7 +24304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -24305,7 +24318,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -24319,7 +24332,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -24330,7 +24343,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -24344,7 +24357,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -24358,7 +24371,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -24369,7 +24382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -24383,7 +24396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -24394,7 +24407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -24405,7 +24418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -24416,7 +24429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -24433,7 +24446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -24450,7 +24463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -24461,7 +24474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -24472,7 +24485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -24483,7 +24496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -24494,7 +24507,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -24505,7 +24518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -24516,7 +24529,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -24527,7 +24540,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -24538,7 +24551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -24549,7 +24562,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -24560,7 +24573,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -24571,7 +24584,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -24582,7 +24595,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -24596,7 +24609,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -24607,7 +24620,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -24618,7 +24631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -24629,7 +24642,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -24640,7 +24653,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -24651,7 +24664,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -24665,7 +24678,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -24676,7 +24689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -24687,7 +24700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -24698,7 +24711,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -24712,7 +24725,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -24726,7 +24739,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -24737,7 +24750,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -24748,7 +24761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -24762,7 +24775,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -24776,7 +24789,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -24787,7 +24800,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -24798,7 +24811,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -24812,7 +24825,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -24823,7 +24836,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -24834,7 +24847,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -24845,7 +24858,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -24856,7 +24869,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -24867,7 +24880,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -24878,7 +24891,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -24892,7 +24905,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -24909,7 +24922,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -24920,7 +24933,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -24931,7 +24944,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -24942,7 +24955,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -24953,7 +24966,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -24964,7 +24977,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -24975,7 +24988,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -24986,7 +24999,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -24997,7 +25010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -25011,7 +25024,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -25022,7 +25035,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -25036,7 +25049,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -25047,7 +25060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -25061,7 +25074,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6</v>
       </c>
@@ -25072,7 +25085,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -25083,7 +25096,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -25094,7 +25107,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
@@ -25108,7 +25121,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7</v>
       </c>
@@ -25122,7 +25135,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -25133,7 +25146,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7</v>
       </c>
@@ -25144,7 +25157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -25155,7 +25168,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -25166,7 +25179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7</v>
       </c>
@@ -25177,7 +25190,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -25188,7 +25201,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7</v>
       </c>
@@ -25202,7 +25215,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>7</v>
       </c>
@@ -25213,7 +25226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>7</v>
       </c>
@@ -25224,7 +25237,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>7</v>
       </c>
@@ -25235,7 +25248,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>7</v>
       </c>
@@ -25246,7 +25259,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>7</v>
       </c>
@@ -25257,7 +25270,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>7</v>
       </c>
@@ -25268,7 +25281,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7</v>
       </c>
@@ -25279,7 +25292,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>7</v>
       </c>
@@ -25290,7 +25303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>7</v>
       </c>
@@ -25301,7 +25314,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>7</v>
       </c>
@@ -25312,7 +25325,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>7</v>
       </c>
@@ -25323,7 +25336,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -25334,7 +25347,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>8</v>
       </c>
@@ -25345,7 +25358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -25356,7 +25369,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
@@ -25370,7 +25383,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>8</v>
       </c>
@@ -25381,7 +25394,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8</v>
       </c>
@@ -25392,7 +25405,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8</v>
       </c>
@@ -25403,7 +25416,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8</v>
       </c>
@@ -25414,7 +25427,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8</v>
       </c>
@@ -25425,7 +25438,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9</v>
       </c>
@@ -25436,7 +25449,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>9</v>
       </c>
@@ -25447,7 +25460,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9</v>
       </c>
@@ -25458,7 +25471,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9</v>
       </c>
@@ -25469,7 +25482,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9</v>
       </c>
@@ -25480,7 +25493,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9</v>
       </c>
@@ -25491,7 +25504,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>9</v>
       </c>
@@ -25502,7 +25515,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10</v>
       </c>
@@ -25513,7 +25526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10</v>
       </c>
@@ -25524,7 +25537,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10</v>
       </c>
@@ -25535,7 +25548,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>10</v>
       </c>
@@ -25546,7 +25559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10</v>
       </c>
@@ -25557,7 +25570,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>10</v>
       </c>
@@ -25568,7 +25581,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>10</v>
       </c>
@@ -25579,7 +25592,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>10</v>
       </c>
@@ -25590,7 +25603,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>10</v>
       </c>
@@ -25601,7 +25614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>10</v>
       </c>
@@ -25612,7 +25625,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10</v>
       </c>
@@ -25623,7 +25636,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11</v>
       </c>
@@ -25634,7 +25647,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11</v>
       </c>
@@ -25645,7 +25658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>11</v>
       </c>
@@ -25656,7 +25669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>11</v>
       </c>
@@ -25667,7 +25680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>11</v>
       </c>
@@ -25678,7 +25691,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>11</v>
       </c>
@@ -25689,7 +25702,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>11</v>
       </c>
@@ -25700,7 +25713,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>11</v>
       </c>
@@ -25711,7 +25724,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12</v>
       </c>
@@ -25722,7 +25735,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12</v>
       </c>
@@ -25739,7 +25752,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12</v>
       </c>
@@ -25750,7 +25763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12</v>
       </c>
@@ -25761,7 +25774,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>12</v>
       </c>
@@ -25772,7 +25785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>12</v>
       </c>
@@ -25783,7 +25796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>12</v>
       </c>
@@ -25794,7 +25807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13</v>
       </c>
@@ -25805,7 +25818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13</v>
       </c>
@@ -25816,7 +25829,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13</v>
       </c>
@@ -25827,7 +25840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13</v>
       </c>
@@ -25838,7 +25851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13</v>
       </c>
@@ -25849,7 +25862,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13</v>
       </c>
@@ -25860,7 +25873,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -25871,7 +25884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -25882,7 +25895,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14</v>
       </c>
@@ -25893,7 +25906,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -25904,7 +25917,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14</v>
       </c>
@@ -25915,7 +25928,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -25926,7 +25939,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14</v>
       </c>
@@ -25937,7 +25950,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -25948,7 +25961,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -25959,7 +25972,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15</v>
       </c>
@@ -25970,7 +25983,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15</v>
       </c>
@@ -25984,7 +25997,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15</v>
       </c>
@@ -25995,7 +26008,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15</v>
       </c>
@@ -26006,7 +26019,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15</v>
       </c>
@@ -26017,7 +26030,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>16</v>
       </c>
@@ -26028,7 +26041,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>16</v>
       </c>
@@ -26039,7 +26052,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16</v>
       </c>
@@ -26050,7 +26063,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
@@ -26061,7 +26074,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>16</v>
       </c>
@@ -26072,7 +26085,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>16</v>
       </c>
@@ -26083,7 +26096,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -26094,7 +26107,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16</v>
       </c>
@@ -26105,7 +26118,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16</v>
       </c>
@@ -26116,7 +26129,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16</v>
       </c>
@@ -26127,7 +26140,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16</v>
       </c>
@@ -26138,7 +26151,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16</v>
       </c>
@@ -26149,7 +26162,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16</v>
       </c>
@@ -26160,7 +26173,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16</v>
       </c>
@@ -26171,7 +26184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16</v>
       </c>
@@ -26182,7 +26195,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16</v>
       </c>
@@ -26193,7 +26206,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>16</v>
       </c>
@@ -26204,7 +26217,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>16</v>
       </c>
@@ -26215,7 +26228,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>16</v>
       </c>
@@ -26226,7 +26239,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>16</v>
       </c>
@@ -26237,7 +26250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>16</v>
       </c>
@@ -26248,7 +26261,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>16</v>
       </c>
@@ -26259,7 +26272,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17</v>
       </c>
@@ -26270,7 +26283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17</v>
       </c>
@@ -26281,7 +26294,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17</v>
       </c>
@@ -26292,7 +26305,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17</v>
       </c>
@@ -26303,7 +26316,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>17</v>
       </c>
@@ -26317,7 +26330,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>17</v>
       </c>
@@ -26328,7 +26341,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>17</v>
       </c>
@@ -26339,7 +26352,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>17</v>
       </c>
@@ -26350,7 +26363,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>17</v>
       </c>
@@ -26361,7 +26374,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>17</v>
       </c>
@@ -26372,7 +26385,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>17</v>
       </c>
@@ -26383,7 +26396,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>18</v>
       </c>
@@ -26394,7 +26407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18</v>
       </c>
@@ -26405,7 +26418,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>18</v>
       </c>
@@ -26416,7 +26429,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>18</v>
       </c>
@@ -26427,7 +26440,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>18</v>
       </c>
@@ -26438,7 +26451,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>18</v>
       </c>
@@ -26449,7 +26462,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>18</v>
       </c>
@@ -26460,7 +26473,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>18</v>
       </c>
@@ -26471,7 +26484,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>18</v>
       </c>
@@ -26482,7 +26495,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>18</v>
       </c>
@@ -26493,7 +26506,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>18</v>
       </c>
@@ -26504,7 +26517,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>18</v>
       </c>
@@ -26515,7 +26528,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>18</v>
       </c>
@@ -26526,7 +26539,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>18</v>
       </c>
@@ -26537,7 +26550,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>18</v>
       </c>
@@ -26548,7 +26561,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>18</v>
       </c>
@@ -26559,7 +26572,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>18</v>
       </c>
@@ -26570,7 +26583,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>18</v>
       </c>
@@ -26581,7 +26594,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>18</v>
       </c>
@@ -26592,7 +26605,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>18</v>
       </c>
@@ -26603,7 +26616,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>18</v>
       </c>
@@ -26614,7 +26627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>18</v>
       </c>
@@ -26625,7 +26638,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>18</v>
       </c>
@@ -26636,7 +26649,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>18</v>
       </c>
@@ -26647,7 +26660,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>18</v>
       </c>
@@ -26658,7 +26671,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>18</v>
       </c>
@@ -26669,7 +26682,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>18</v>
       </c>
@@ -26680,7 +26693,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>19</v>
       </c>
@@ -26691,7 +26704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>19</v>
       </c>
@@ -26708,7 +26721,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>19</v>
       </c>
@@ -26719,7 +26732,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>19</v>
       </c>
@@ -26730,7 +26743,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>19</v>
       </c>
@@ -26741,7 +26754,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>19</v>
       </c>
@@ -26752,7 +26765,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>19</v>
       </c>
@@ -26763,7 +26776,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>19</v>
       </c>
@@ -26774,7 +26787,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>19</v>
       </c>
@@ -26785,7 +26798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>19</v>
       </c>
@@ -26796,7 +26809,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>19</v>
       </c>
@@ -26807,7 +26820,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>19</v>
       </c>
@@ -26818,7 +26831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>19</v>
       </c>
@@ -26829,7 +26842,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>19</v>
       </c>
@@ -26840,7 +26853,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>20</v>
       </c>
@@ -26851,7 +26864,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>20</v>
       </c>
@@ -26862,7 +26875,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>20</v>
       </c>
@@ -26873,7 +26886,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>20</v>
       </c>
@@ -26884,7 +26897,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>20</v>
       </c>
@@ -26895,7 +26908,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>20</v>
       </c>
@@ -26906,7 +26919,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>20</v>
       </c>
@@ -26917,7 +26930,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>20</v>
       </c>
@@ -26928,7 +26941,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>20</v>
       </c>
@@ -26939,7 +26952,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>20</v>
       </c>
@@ -26950,7 +26963,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>20</v>
       </c>
@@ -26961,7 +26974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>20</v>
       </c>
@@ -26972,7 +26985,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>21</v>
       </c>
@@ -26983,7 +26996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>21</v>
       </c>
@@ -26994,7 +27007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>21</v>
       </c>
@@ -27005,7 +27018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>21</v>
       </c>
@@ -27016,7 +27029,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>21</v>
       </c>
@@ -27027,7 +27040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>21</v>
       </c>
@@ -27038,7 +27051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>21</v>
       </c>
@@ -27049,7 +27062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>21</v>
       </c>
@@ -27060,7 +27073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>21</v>
       </c>
@@ -27071,7 +27084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>22</v>
       </c>
@@ -27082,7 +27095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>22</v>
       </c>
@@ -27093,7 +27106,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>22</v>
       </c>
@@ -27104,7 +27117,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>22</v>
       </c>
@@ -27115,7 +27128,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>22</v>
       </c>
@@ -27126,7 +27139,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>22</v>
       </c>
@@ -27137,7 +27150,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>22</v>
       </c>
@@ -27148,7 +27161,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>22</v>
       </c>
@@ -27159,7 +27172,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>22</v>
       </c>
@@ -27170,7 +27183,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>22</v>
       </c>
@@ -27181,7 +27194,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>22</v>
       </c>
@@ -27192,7 +27205,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>22</v>
       </c>
@@ -27203,7 +27216,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>22</v>
       </c>
@@ -27214,7 +27227,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>23</v>
       </c>
@@ -27225,7 +27238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>23</v>
       </c>
@@ -27236,7 +27249,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>23</v>
       </c>
@@ -27247,7 +27260,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>23</v>
       </c>
@@ -27258,7 +27271,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>23</v>
       </c>
@@ -27269,7 +27282,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>23</v>
       </c>
@@ -27280,7 +27293,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>24</v>
       </c>
@@ -27291,7 +27304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>24</v>
       </c>
@@ -27302,7 +27315,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>24</v>
       </c>
@@ -27313,7 +27326,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>24</v>
       </c>
@@ -27324,7 +27337,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>24</v>
       </c>
@@ -27335,7 +27348,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>24</v>
       </c>
@@ -27349,7 +27362,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>24</v>
       </c>
@@ -27360,7 +27373,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>24</v>
       </c>
@@ -27371,7 +27384,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>24</v>
       </c>
@@ -27382,7 +27395,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>24</v>
       </c>
@@ -27393,7 +27406,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>24</v>
       </c>
@@ -27404,7 +27417,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>24</v>
       </c>
@@ -27418,7 +27431,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>24</v>
       </c>
@@ -27432,7 +27445,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>24</v>
       </c>
@@ -27443,7 +27456,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>24</v>
       </c>
@@ -27454,7 +27467,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>24</v>
       </c>
@@ -27465,7 +27478,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>24</v>
       </c>
@@ -27476,7 +27489,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>24</v>
       </c>
@@ -27487,7 +27500,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>24</v>
       </c>
@@ -27498,7 +27511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>25</v>
       </c>
@@ -27509,7 +27522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>25</v>
       </c>
@@ -27523,7 +27536,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>25</v>
       </c>
@@ -27534,7 +27547,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>25</v>
       </c>
@@ -27545,7 +27558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>25</v>
       </c>
@@ -27556,7 +27569,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>25</v>
       </c>
@@ -27567,7 +27580,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>25</v>
       </c>
@@ -27578,7 +27591,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>25</v>
       </c>
@@ -27589,7 +27602,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>25</v>
       </c>
@@ -27600,7 +27613,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>26</v>
       </c>
@@ -27611,7 +27624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>26</v>
       </c>
@@ -27625,7 +27638,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>26</v>
       </c>
@@ -27636,7 +27649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>26</v>
       </c>
@@ -27647,7 +27660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>26</v>
       </c>
@@ -27658,7 +27671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>26</v>
       </c>
@@ -27669,7 +27682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>26</v>
       </c>
@@ -27680,7 +27693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>26</v>
       </c>
@@ -27691,7 +27704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>26</v>
       </c>
@@ -27702,7 +27715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>26</v>
       </c>
@@ -27713,7 +27726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>26</v>
       </c>
@@ -27724,7 +27737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>26</v>
       </c>
@@ -27735,7 +27748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>26</v>
       </c>
@@ -27746,7 +27759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>27</v>
       </c>
@@ -27757,7 +27770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>27</v>
       </c>
@@ -27768,7 +27781,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>27</v>
       </c>
@@ -27779,7 +27792,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>27</v>
       </c>
@@ -27790,7 +27803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>27</v>
       </c>
@@ -27801,7 +27814,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>27</v>
       </c>
@@ -27812,7 +27825,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>27</v>
       </c>
@@ -27823,7 +27836,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>27</v>
       </c>
@@ -27834,7 +27847,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>27</v>
       </c>
@@ -27845,7 +27858,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>27</v>
       </c>
@@ -27856,7 +27869,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>27</v>
       </c>
@@ -27867,7 +27880,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>28</v>
       </c>
@@ -27878,7 +27891,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>28</v>
       </c>
@@ -27889,7 +27902,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>28</v>
       </c>
@@ -27900,7 +27913,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>28</v>
       </c>
@@ -27911,7 +27924,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>28</v>
       </c>
@@ -27922,7 +27935,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>28</v>
       </c>
@@ -27933,7 +27946,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>28</v>
       </c>
@@ -27944,7 +27957,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>29</v>
       </c>
@@ -27955,7 +27968,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>29</v>
       </c>
@@ -27969,7 +27982,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>29</v>
       </c>
@@ -27980,7 +27993,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>29</v>
       </c>
@@ -27991,7 +28004,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>30</v>
       </c>
@@ -28002,7 +28015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>30</v>
       </c>
@@ -28013,7 +28026,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>30</v>
       </c>
@@ -28024,7 +28037,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>30</v>
       </c>
@@ -28035,7 +28048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>30</v>
       </c>
@@ -28046,7 +28059,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>30</v>
       </c>
@@ -28057,7 +28070,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>30</v>
       </c>
@@ -28068,7 +28081,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>30</v>
       </c>
@@ -28079,7 +28092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>30</v>
       </c>
@@ -28090,7 +28103,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>30</v>
       </c>
@@ -28101,7 +28114,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>30</v>
       </c>
@@ -28112,7 +28125,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>30</v>
       </c>
@@ -28123,7 +28136,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>30</v>
       </c>
@@ -28134,7 +28147,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>30</v>
       </c>
@@ -28145,7 +28158,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>30</v>
       </c>
@@ -28156,7 +28169,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>31</v>
       </c>
@@ -28167,7 +28180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>31</v>
       </c>
@@ -28178,7 +28191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>31</v>
       </c>
@@ -28189,7 +28202,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>31</v>
       </c>
@@ -28200,7 +28213,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>31</v>
       </c>
@@ -28211,7 +28224,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>32</v>
       </c>
@@ -28222,7 +28235,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>33</v>
       </c>
@@ -28236,7 +28249,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>33</v>
       </c>
@@ -28250,7 +28263,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>33</v>
       </c>
@@ -28264,7 +28277,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>33</v>
       </c>
@@ -28278,7 +28291,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>33</v>
       </c>
@@ -28292,7 +28305,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>33</v>
       </c>
@@ -28303,7 +28316,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>34</v>
       </c>
@@ -28314,7 +28327,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>34</v>
       </c>
@@ -28325,7 +28338,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>34</v>
       </c>
@@ -28336,7 +28349,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>34</v>
       </c>
@@ -28347,7 +28360,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>35</v>
       </c>
@@ -28358,7 +28371,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>35</v>
       </c>
@@ -28369,7 +28382,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>36</v>
       </c>
@@ -28380,7 +28393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>36</v>
       </c>
@@ -28391,7 +28404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>36</v>
       </c>
@@ -28402,7 +28415,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>36</v>
       </c>
@@ -28413,7 +28426,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>36</v>
       </c>
@@ -28424,7 +28437,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>36</v>
       </c>
@@ -28435,7 +28448,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>36</v>
       </c>
@@ -28446,7 +28459,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>36</v>
       </c>
@@ -28457,7 +28470,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>36</v>
       </c>
@@ -28468,7 +28481,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>37</v>
       </c>
@@ -28479,7 +28492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>37</v>
       </c>
@@ -28490,7 +28503,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>37</v>
       </c>
@@ -28501,7 +28514,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>37</v>
       </c>
@@ -28512,7 +28525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>37</v>
       </c>
@@ -28523,7 +28536,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>37</v>
       </c>
@@ -28534,7 +28547,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>37</v>
       </c>
@@ -28545,7 +28558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>37</v>
       </c>
@@ -28556,7 +28569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>37</v>
       </c>
@@ -28567,7 +28580,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>37</v>
       </c>
@@ -28578,7 +28591,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>37</v>
       </c>
@@ -28589,7 +28602,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>38</v>
       </c>
@@ -28600,7 +28613,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>38</v>
       </c>
@@ -28611,7 +28624,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>38</v>
       </c>
@@ -28622,7 +28635,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>38</v>
       </c>
@@ -28633,7 +28646,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>38</v>
       </c>
@@ -28644,7 +28657,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>38</v>
       </c>
@@ -28655,7 +28668,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>38</v>
       </c>
@@ -28666,7 +28679,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>38</v>
       </c>
@@ -28677,7 +28690,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>38</v>
       </c>
@@ -28688,7 +28701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>39</v>
       </c>
@@ -28699,7 +28712,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>39</v>
       </c>
@@ -28710,7 +28723,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>39</v>
       </c>
@@ -28721,7 +28734,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>39</v>
       </c>
@@ -28732,7 +28745,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>40</v>
       </c>
@@ -28746,7 +28759,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>41</v>
       </c>
@@ -28757,7 +28770,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>41</v>
       </c>
@@ -28768,12 +28781,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>43</v>
       </c>
@@ -28784,7 +28797,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>43</v>
       </c>
@@ -28795,7 +28808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>43</v>
       </c>
@@ -28806,7 +28819,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>43</v>
       </c>
@@ -28817,7 +28830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>43</v>
       </c>
@@ -28828,7 +28841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>43</v>
       </c>
@@ -28839,7 +28852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>43</v>
       </c>
@@ -28850,7 +28863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>43</v>
       </c>
@@ -28861,7 +28874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>43</v>
       </c>
@@ -28872,7 +28885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>43</v>
       </c>
@@ -28883,7 +28896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>43</v>
       </c>
@@ -28894,7 +28907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>43</v>
       </c>
@@ -28905,7 +28918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>44</v>
       </c>
@@ -28919,7 +28932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>44</v>
       </c>
@@ -28936,7 +28949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>45</v>
       </c>
@@ -28947,7 +28960,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>45</v>
       </c>
@@ -28958,7 +28971,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>45</v>
       </c>
@@ -28969,7 +28982,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>45</v>
       </c>
@@ -28980,7 +28993,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>45</v>
       </c>
@@ -28991,7 +29004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>45</v>
       </c>
@@ -29002,7 +29015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>45</v>
       </c>
@@ -29013,7 +29026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>45</v>
       </c>
@@ -29024,12 +29037,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>46</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>47</v>
       </c>
@@ -29040,7 +29053,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>47</v>
       </c>
@@ -29051,7 +29064,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>47</v>
       </c>
@@ -29062,7 +29075,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>47</v>
       </c>
@@ -29073,17 +29086,17 @@
         <v>546</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>48</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>49</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>50</v>
       </c>
@@ -29094,7 +29107,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>50</v>
       </c>
@@ -29105,7 +29118,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>50</v>
       </c>
@@ -29116,7 +29129,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>51</v>
       </c>
@@ -29127,7 +29140,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>51</v>
       </c>
@@ -29138,7 +29151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>51</v>
       </c>
@@ -29149,7 +29162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>51</v>
       </c>
@@ -29160,7 +29173,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>51</v>
       </c>
@@ -29171,7 +29184,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>52</v>
       </c>
@@ -29199,18 +29212,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -29227,7 +29240,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>540</v>
       </c>
@@ -29247,7 +29260,7 @@
         <v>7537</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>541</v>
       </c>
@@ -29267,7 +29280,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>543</v>
       </c>
@@ -29301,12 +29314,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>809</v>
       </c>
@@ -29320,7 +29333,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -29334,7 +29347,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -29359,14 +29372,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -29377,7 +29390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>333</v>
       </c>
@@ -29388,7 +29401,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -29399,7 +29412,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>335</v>
       </c>
@@ -29410,7 +29423,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>336</v>
       </c>
@@ -29421,7 +29434,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -29429,7 +29442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>338</v>
       </c>
@@ -29437,7 +29450,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -29448,7 +29461,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>339</v>
       </c>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="29784" windowHeight="14100" tabRatio="702" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22320" windowHeight="9468" tabRatio="702" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Values" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scripts!$A$1:$F$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scripts!$A$1:$E$149</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="857">
   <si>
     <t>Purpose</t>
   </si>
@@ -4180,662 +4180,664 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD157"/>
+  <dimension ref="A1:XFC157"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
       <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
       <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="D33" t="s">
-        <v>704</v>
-      </c>
-      <c r="E33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
       <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>705</v>
       </c>
       <c r="D35" t="s">
-        <v>705</v>
-      </c>
-      <c r="E35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
       <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
       <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
       <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
       <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
       <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
       <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
       <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
       <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
       <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
       <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
       <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
       <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
       <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
       <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="2" t="s">
         <v>803</v>
       </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -21215,1184 +21217,1195 @@
       <c r="XFA56" s="2"/>
       <c r="XFB56" s="2"/>
       <c r="XFC56" s="2"/>
-      <c r="XFD56" s="2"/>
-    </row>
-    <row r="57" spans="1:16384" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
       <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
         <v>724</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
       <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
         <v>209</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
       <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
         <v>214</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
       <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
       <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
       <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
       <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
       <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
       <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
       <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
       <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
       <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
         <v>202</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
       <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
       <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
       <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
       <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
       <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
       <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
       <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
       <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
       <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
       <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
       <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
       <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
         <v>738</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
       <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
         <v>385</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
       <c r="C84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
       <c r="C85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
       <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
       <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
       <c r="C88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
       <c r="C89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
       <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
       <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
       <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
         <v>851</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E95" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
       <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
       <c r="C97" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
       <c r="C98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
       <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
       <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
       <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
       <c r="C102" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
         <v>390</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
       <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
       <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
       <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
       <c r="C106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
       <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
       <c r="C108" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
       <c r="C109" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
       <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
       <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
       <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
       <c r="C113" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
       <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" t="s">
         <v>288</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
       <c r="C115" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
         <v>290</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E115" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>538</v>
       </c>
       <c r="D116" t="s">
-        <v>538</v>
-      </c>
-      <c r="E116" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
       <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
       <c r="C118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
       <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
       <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
       <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
       <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
       <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
       <c r="C124" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
       <c r="C125" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
       <c r="C126" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
       <c r="C128" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
       <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
       <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D131" t="s">
-        <v>104</v>
-      </c>
-      <c r="E131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
       <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
       <c r="C133" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
       <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" t="s">
         <v>593</v>
       </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
       <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
       <c r="C136" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
       <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
       <c r="C138" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
       <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
       <c r="C140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
       <c r="C141" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
       <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" t="s">
         <v>393</v>
       </c>
-      <c r="F142" t="s">
+      <c r="E142" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
       <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
-      </c>
-      <c r="E144" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
       <c r="C145" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D147" t="s">
-        <v>117</v>
-      </c>
-      <c r="E147" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>484</v>
       </c>
       <c r="D148" t="s">
-        <v>484</v>
-      </c>
-      <c r="E148" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D149" t="s">
-        <v>77</v>
-      </c>
-      <c r="E149" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
       <c r="C150" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="D151" t="s">
-        <v>321</v>
-      </c>
-      <c r="E151" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>323</v>
-      </c>
-      <c r="E152" t="s">
         <v>853</v>
       </c>
-      <c r="G152" t="s">
+      <c r="F152" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>154</v>
       </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
       <c r="C153" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>155</v>
       </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
       <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>156</v>
       </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
       <c r="C155" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>157</v>
       </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
       <c r="C156" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>158</v>
       </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>603</v>
       </c>
       <c r="D157" t="s">
-        <v>603</v>
-      </c>
-      <c r="E157" t="s">
         <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F149">
+  <autoFilter ref="A1:E149">
     <sortState ref="A2:F108">
       <sortCondition ref="A2:A108"/>
     </sortState>
@@ -22408,7 +22421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22320" windowHeight="9468" tabRatio="702" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="14136" windowHeight="8304" tabRatio="702" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="860">
   <si>
     <t>Purpose</t>
   </si>
@@ -2349,9 +2349,6 @@
     <t>Glass Chandelier</t>
   </si>
   <si>
-    <t>08 = Is Playing</t>
-  </si>
-  <si>
     <t>Loose Brick</t>
   </si>
   <si>
@@ -2608,6 +2605,18 @@
   </si>
   <si>
     <t>Room 36 Entered (Storage room next to Pool)</t>
+  </si>
+  <si>
+    <t>08 = In Player</t>
+  </si>
+  <si>
+    <t>08 = Has Tape</t>
+  </si>
+  <si>
+    <t>02 = Still  Alive</t>
+  </si>
+  <si>
+    <t>08 = In Microwave</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2948,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3185,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -3217,15 +3226,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -3233,7 +3242,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -3241,7 +3250,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
@@ -3249,7 +3258,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -3260,15 +3269,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3286,7 +3295,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -3295,7 +3304,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -3304,7 +3313,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -3313,7 +3322,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -3322,7 +3331,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -3331,7 +3340,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -3340,7 +3349,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B17" s="3">
         <v>8</v>
@@ -3349,7 +3358,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -3358,55 +3367,55 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -4182,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4286,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4418,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4835,7 +4844,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -21643,7 +21652,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -21668,10 +21677,10 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E95" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -21737,7 +21746,7 @@
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -22107,7 +22116,7 @@
         <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -22340,10 +22349,10 @@
         <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F152" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -22421,8 +22430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22558,7 +22567,7 @@
         <v>590</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F7" t="s">
         <v>591</v>
@@ -22671,7 +22680,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -22699,7 +22708,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E16" t="s">
         <v>259</v>
@@ -22892,13 +22901,13 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
+        <v>843</v>
+      </c>
+      <c r="E36" t="s">
         <v>844</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>845</v>
-      </c>
-      <c r="F36" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -22909,13 +22918,13 @@
         <v>170</v>
       </c>
       <c r="D37" t="s">
+        <v>827</v>
+      </c>
+      <c r="E37" t="s">
         <v>828</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>829</v>
-      </c>
-      <c r="F37" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -22946,7 +22955,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E39" t="s">
         <v>217</v>
@@ -23395,7 +23404,7 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -23411,13 +23420,13 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
+        <v>840</v>
+      </c>
+      <c r="E73" t="s">
+        <v>839</v>
+      </c>
+      <c r="F73" t="s">
         <v>841</v>
-      </c>
-      <c r="E73" t="s">
-        <v>840</v>
-      </c>
-      <c r="F73" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -23528,7 +23537,7 @@
         <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E85" t="s">
         <v>217</v>
@@ -23649,7 +23658,7 @@
         <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E93" t="s">
         <v>217</v>
@@ -23687,7 +23696,7 @@
         <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E97" t="s">
         <v>217</v>
@@ -23698,7 +23707,7 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E98" t="s">
         <v>217</v>
@@ -23707,12 +23716,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E99" t="s">
         <v>217</v>
@@ -23726,7 +23735,7 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E100" t="s">
         <v>259</v>
@@ -23740,7 +23749,7 @@
         <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E101" t="s">
         <v>259</v>
@@ -23754,7 +23763,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E102" t="s">
         <v>259</v>
@@ -23768,7 +23777,7 @@
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E103" t="s">
         <v>259</v>
@@ -23830,7 +23839,7 @@
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E107" t="s">
         <v>217</v>
@@ -23915,7 +23924,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -23995,7 +24004,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -24011,7 +24020,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -24043,7 +24052,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -24059,7 +24068,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -24147,7 +24156,7 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -24187,7 +24196,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -24226,8 +24235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24341,9 +24350,6 @@
       <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -24381,7 +24387,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -24405,6 +24411,12 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
+      <c r="D12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12" t="s">
+        <v>733</v>
+      </c>
       <c r="G12" t="s">
         <v>68</v>
       </c>
@@ -24723,6 +24735,9 @@
       <c r="C39" t="s">
         <v>379</v>
       </c>
+      <c r="D39" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -24749,7 +24764,7 @@
         <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>770</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -24901,7 +24916,7 @@
         <v>446</v>
       </c>
       <c r="C54" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -25023,7 +25038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -25037,7 +25052,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -25048,7 +25063,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -25062,7 +25077,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -25073,7 +25088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -25087,7 +25102,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6</v>
       </c>
@@ -25098,7 +25113,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -25109,7 +25124,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -25120,7 +25135,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
@@ -25134,7 +25149,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7</v>
       </c>
@@ -25148,7 +25163,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -25159,7 +25174,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7</v>
       </c>
@@ -25170,7 +25185,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -25181,7 +25196,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -25191,8 +25206,14 @@
       <c r="C78" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>858</v>
+      </c>
+      <c r="E78" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7</v>
       </c>
@@ -25202,8 +25223,14 @@
       <c r="C79" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>858</v>
+      </c>
+      <c r="E79" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -26007,7 +26034,7 @@
         <v>654</v>
       </c>
       <c r="D151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -26337,7 +26364,7 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D181" t="s">
         <v>754</v>
@@ -26362,7 +26389,10 @@
         <v>231</v>
       </c>
       <c r="C183" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="D183" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -27372,7 +27402,7 @@
         <v>426</v>
       </c>
       <c r="D274" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -27441,7 +27471,7 @@
         <v>426</v>
       </c>
       <c r="D280" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -27455,7 +27485,7 @@
         <v>429</v>
       </c>
       <c r="D281" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -27466,7 +27496,7 @@
         <v>239</v>
       </c>
       <c r="C282" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -28769,7 +28799,7 @@
         <v>546</v>
       </c>
       <c r="D398" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -28807,7 +28837,7 @@
         <v>287</v>
       </c>
       <c r="C402" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -28817,7 +28847,7 @@
       <c r="B403">
         <v>288</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="3">
         <v>0</v>
       </c>
     </row>
@@ -28828,8 +28858,8 @@
       <c r="B404">
         <v>289</v>
       </c>
-      <c r="C404" t="s">
-        <v>826</v>
+      <c r="C404" s="3" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -28839,7 +28869,7 @@
       <c r="B405">
         <v>422</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="3">
         <v>1</v>
       </c>
     </row>
@@ -28850,7 +28880,7 @@
       <c r="B406">
         <v>423</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="3">
         <v>3</v>
       </c>
     </row>
@@ -28861,7 +28891,7 @@
       <c r="B407">
         <v>424</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="3">
         <v>4</v>
       </c>
     </row>
@@ -28872,7 +28902,7 @@
       <c r="B408">
         <v>425</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="3">
         <v>5</v>
       </c>
     </row>
@@ -28883,7 +28913,7 @@
       <c r="B409">
         <v>426</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="3">
         <v>6</v>
       </c>
     </row>
@@ -28894,7 +28924,7 @@
       <c r="B410">
         <v>427</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="3">
         <v>6</v>
       </c>
     </row>
@@ -28905,7 +28935,7 @@
       <c r="B411">
         <v>428</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="3">
         <v>7</v>
       </c>
     </row>
@@ -28916,7 +28946,7 @@
       <c r="B412">
         <v>429</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="3">
         <v>8</v>
       </c>
     </row>
@@ -28927,7 +28957,7 @@
       <c r="B413">
         <v>430</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="3">
         <v>9</v>
       </c>
     </row>
@@ -29214,6 +29244,7 @@
     <sortCondition ref="B2:B439"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29324,7 +29355,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29334,16 +29365,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -29351,13 +29382,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
         <v>810</v>
-      </c>
-      <c r="D2" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -29365,10 +29396,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -29382,7 +29413,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="14136" windowHeight="8304" tabRatio="702" activeTab="3"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="869">
   <si>
     <t>Purpose</t>
   </si>
@@ -2568,21 +2568,9 @@
     <t>Nurse Edna: Out of room</t>
   </si>
   <si>
-    <t>Pin Entry Correct</t>
-  </si>
-  <si>
-    <t>0 = Yes</t>
-  </si>
-  <si>
-    <t>1 = No</t>
-  </si>
-  <si>
     <t>Dr. Fred / Nurse Edna Trigger Enabled</t>
   </si>
   <si>
-    <t>Keypad Input Complete</t>
-  </si>
-  <si>
     <t>08 = Fixed</t>
   </si>
   <si>
@@ -2617,6 +2605,45 @@
   </si>
   <si>
     <t>08 = In Microwave</t>
+  </si>
+  <si>
+    <t>Keypad Input Open</t>
+  </si>
+  <si>
+    <t>Pin Entry Wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 = </t>
+  </si>
+  <si>
+    <t>script-48</t>
+  </si>
+  <si>
+    <t>Script does not stop</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>roomobj-7-60.Give</t>
+  </si>
+  <si>
+    <t>Green Tentacle Heard tape playing</t>
+  </si>
+  <si>
+    <t>script-102</t>
+  </si>
+  <si>
+    <t>08 = Hidden</t>
+  </si>
+  <si>
+    <t>08 = Lights On</t>
+  </si>
+  <si>
+    <t>Var 112 = 0 If Kid in Room</t>
+  </si>
+  <si>
+    <t>Loops until actor moves from gargoyle</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2975,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3430,7 +3457,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4191,20 +4218,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC157"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4220,8 +4247,11 @@
       <c r="E1" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4232,7 +4262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4243,7 +4273,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4254,7 +4284,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4265,7 +4295,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4276,7 +4306,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4287,7 +4317,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4298,7 +4328,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4309,7 +4339,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4320,7 +4350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4331,7 +4361,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4342,7 +4372,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4353,7 +4383,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4364,7 +4394,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4375,7 +4405,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4769,6 +4799,12 @@
       <c r="C49" t="s">
         <v>180</v>
       </c>
+      <c r="D49" t="s">
+        <v>862</v>
+      </c>
+      <c r="F49" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="50" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -4779,6 +4815,12 @@
       </c>
       <c r="C50" t="s">
         <v>201</v>
+      </c>
+      <c r="D50" t="s">
+        <v>859</v>
+      </c>
+      <c r="F50" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:16383" x14ac:dyDescent="0.3">
@@ -21652,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -21677,10 +21719,10 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E95" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -21873,7 +21915,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -21884,7 +21926,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -21898,7 +21940,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -21912,7 +21954,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -21926,7 +21968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -21937,7 +21979,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -21948,7 +21990,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -21959,7 +22001,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -21970,7 +22012,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -21981,7 +22023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -21992,7 +22034,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -22003,7 +22045,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -22014,7 +22056,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -22024,8 +22066,11 @@
       <c r="C125" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -22036,7 +22081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -22050,7 +22095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -22061,7 +22106,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -22072,7 +22117,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -22083,7 +22128,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -22097,7 +22142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -22108,7 +22153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -22119,7 +22164,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -22132,8 +22177,11 @@
       <c r="E134" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -22144,7 +22192,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22155,7 +22203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22166,7 +22214,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22177,7 +22225,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22188,7 +22236,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22199,7 +22247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22210,7 +22258,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22224,7 +22272,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22235,7 +22283,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -22259,6 +22307,9 @@
       <c r="C145" t="s">
         <v>488</v>
       </c>
+      <c r="F145" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
@@ -22349,10 +22400,10 @@
         <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F152" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -22428,10 +22479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22901,13 +22952,13 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="E36" t="s">
-        <v>844</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>845</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -22955,7 +23006,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="E39" t="s">
         <v>217</v>
@@ -23696,7 +23747,7 @@
         <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E97" t="s">
         <v>217</v>
@@ -23707,7 +23758,7 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E98" t="s">
         <v>217</v>
@@ -23887,6 +23938,23 @@
       </c>
       <c r="C111" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>863</v>
+      </c>
+      <c r="D112" t="s">
+        <v>864</v>
+      </c>
+      <c r="E112" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -23903,7 +23971,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24235,8 +24303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24736,7 +24804,7 @@
         <v>379</v>
       </c>
       <c r="D39" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -24764,7 +24832,7 @@
         <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -25207,10 +25275,10 @@
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E78" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -25224,10 +25292,10 @@
         <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E79" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -26034,7 +26102,7 @@
         <v>654</v>
       </c>
       <c r="D151" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -26852,7 +26920,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>19</v>
       </c>
@@ -26863,7 +26931,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>19</v>
       </c>
@@ -26874,7 +26942,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>19</v>
       </c>
@@ -26885,7 +26953,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>19</v>
       </c>
@@ -26896,7 +26964,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>20</v>
       </c>
@@ -26906,8 +26974,11 @@
       <c r="C229" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>20</v>
       </c>
@@ -26918,7 +26989,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>20</v>
       </c>
@@ -26929,7 +27000,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>20</v>
       </c>
@@ -26940,7 +27011,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>20</v>
       </c>
@@ -26951,7 +27022,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>20</v>
       </c>
@@ -26961,8 +27032,11 @@
       <c r="C234" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>20</v>
       </c>
@@ -26973,7 +27047,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>20</v>
       </c>
@@ -26984,7 +27058,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>20</v>
       </c>
@@ -26995,7 +27069,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>20</v>
       </c>
@@ -27006,7 +27080,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>20</v>
       </c>
@@ -27017,7 +27091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>20</v>
       </c>
@@ -27747,7 +27821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>26</v>
       </c>
@@ -27758,7 +27832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>26</v>
       </c>
@@ -27769,7 +27843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>26</v>
       </c>
@@ -27780,7 +27854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>26</v>
       </c>
@@ -27791,7 +27865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>26</v>
       </c>
@@ -27802,7 +27876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>27</v>
       </c>
@@ -27813,7 +27887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>27</v>
       </c>
@@ -27823,8 +27897,11 @@
       <c r="C311" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>27</v>
       </c>
@@ -27835,7 +27912,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>27</v>
       </c>
@@ -27846,7 +27923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>27</v>
       </c>
@@ -27856,8 +27933,11 @@
       <c r="C314" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>27</v>
       </c>
@@ -27868,7 +27948,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>27</v>
       </c>
@@ -27879,7 +27959,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>27</v>
       </c>
@@ -27890,7 +27970,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>27</v>
       </c>
@@ -27901,7 +27981,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>27</v>
       </c>
@@ -27912,7 +27992,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>27</v>
       </c>
@@ -28278,7 +28358,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>33</v>
       </c>
@@ -28291,8 +28371,11 @@
       <c r="D353" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E353" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>33</v>
       </c>
@@ -28305,8 +28388,11 @@
       <c r="D354" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E354" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>33</v>
       </c>
@@ -28319,8 +28405,11 @@
       <c r="D355" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E355" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>33</v>
       </c>
@@ -28333,8 +28422,11 @@
       <c r="D356" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E356" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>33</v>
       </c>
@@ -28347,8 +28439,11 @@
       <c r="D357" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E357" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>33</v>
       </c>
@@ -28359,7 +28454,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>34</v>
       </c>
@@ -28370,7 +28465,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>34</v>
       </c>
@@ -28381,7 +28476,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>34</v>
       </c>
@@ -28392,7 +28487,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>34</v>
       </c>
@@ -28403,7 +28498,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>35</v>
       </c>
@@ -28414,7 +28509,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>35</v>
       </c>
@@ -28425,7 +28520,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>36</v>
       </c>
@@ -28436,7 +28531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>36</v>
       </c>
@@ -28447,7 +28542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>36</v>
       </c>
@@ -28458,7 +28553,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>36</v>
       </c>
@@ -29399,7 +29494,7 @@
         <v>807</v>
       </c>
       <c r="C3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -29413,7 +29508,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="869">
   <si>
     <t>Purpose</t>
   </si>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:XFC157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22427,6 +22427,9 @@
       <c r="C154" t="s">
         <v>325</v>
       </c>
+      <c r="F154" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -22482,7 +22485,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="2"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -4218,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22484,8 +22484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29510,8 +29510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="8"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="870">
   <si>
     <t>Purpose</t>
   </si>
@@ -2644,6 +2644,9 @@
   </si>
   <si>
     <t>Loops until actor moves from gargoyle</t>
+  </si>
+  <si>
+    <t>04 = Broken</t>
   </si>
 </sst>
 </file>
@@ -22484,8 +22487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24306,8 +24309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24351,7 +24354,7 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>733</v>
       </c>
     </row>
@@ -24365,7 +24368,7 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>763</v>
       </c>
     </row>
@@ -24390,6 +24393,12 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
+      <c r="D5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E5" t="s">
+        <v>733</v>
+      </c>
       <c r="G5" t="s">
         <v>61</v>
       </c>
@@ -24407,7 +24416,7 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>764</v>
       </c>
     </row>
@@ -24443,7 +24452,7 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>748</v>
       </c>
     </row>
@@ -24457,7 +24466,7 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>830</v>
       </c>
     </row>
@@ -29510,8 +29519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="20340" windowHeight="12960" tabRatio="702" activeTab="3"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="14172" windowHeight="7632" tabRatio="702" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="880">
   <si>
     <t>Purpose</t>
   </si>
@@ -1839,9 +1839,6 @@
     <t>Door: Kitchen</t>
   </si>
   <si>
-    <t>Window Break</t>
-  </si>
-  <si>
     <t>Cassette: Play, Break Windows/Free Key</t>
   </si>
   <si>
@@ -2529,9 +2526,6 @@
     <t>11 = #</t>
   </si>
   <si>
-    <t>08 = in mailbox</t>
-  </si>
-  <si>
     <t>Cutscene: 3 Guys Who Pub Anything: Receive Mail Trigger</t>
   </si>
   <si>
@@ -2647,6 +2641,42 @@
   </si>
   <si>
     <t>04 = Broken</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Shower On</t>
+  </si>
+  <si>
+    <t>08 = in Mailbox</t>
+  </si>
+  <si>
+    <t>Output Variable</t>
+  </si>
+  <si>
+    <t>Var 92: 1 - Flashlight. 2 - Light On</t>
+  </si>
+  <si>
+    <t>Ted: Bath Curtain Moving</t>
+  </si>
+  <si>
+    <t>Window Crack</t>
+  </si>
+  <si>
+    <t>Window 1</t>
+  </si>
+  <si>
+    <t>Window 2</t>
+  </si>
+  <si>
+    <t>Hunk-O-Matic Down</t>
+  </si>
+  <si>
+    <t>Hunk-O-Matic Up</t>
+  </si>
+  <si>
+    <t>Dial Tone</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3232,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -3256,15 +3286,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -3272,7 +3302,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -3280,7 +3310,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
@@ -3288,7 +3318,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -3299,15 +3329,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3325,7 +3355,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -3334,7 +3364,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -3343,7 +3373,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -3352,7 +3382,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -3361,7 +3391,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -3370,7 +3400,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -3379,7 +3409,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B17" s="3">
         <v>8</v>
@@ -3388,7 +3418,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -3397,55 +3427,55 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -3894,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4020,7 +4050,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -4219,10 +4249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC157"/>
+  <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4231,10 +4261,11 @@
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4251,10 +4282,13 @@
         <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4265,7 +4299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4273,10 +4307,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4287,7 +4321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4298,7 +4332,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4309,7 +4343,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4317,10 +4351,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4328,10 +4362,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4342,7 +4376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4353,7 +4387,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4364,7 +4398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4375,7 +4409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4386,7 +4420,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4397,7 +4431,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4408,7 +4442,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4416,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4460,7 +4494,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,7 +4643,7 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -4634,7 +4668,7 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
@@ -4703,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -4778,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4792,7 +4826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4803,13 +4837,13 @@
         <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>862</v>
-      </c>
-      <c r="F49" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="50" spans="1:16383" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4820,13 +4854,13 @@
         <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>859</v>
-      </c>
-      <c r="F50" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16383" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+      <c r="G50" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4836,8 +4870,11 @@
       <c r="C51" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="52" spans="1:16383" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4848,7 +4885,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4859,7 +4896,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4870,7 +4907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4881,7 +4918,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4889,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -21271,8 +21308,9 @@
       <c r="XFA56" s="2"/>
       <c r="XFB56" s="2"/>
       <c r="XFC56" s="2"/>
-    </row>
-    <row r="57" spans="1:16383" x14ac:dyDescent="0.3">
+      <c r="XFD56" s="2"/>
+    </row>
+    <row r="57" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21280,13 +21318,13 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21300,7 +21338,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21314,7 +21352,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -21325,7 +21363,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -21336,7 +21374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -21347,7 +21385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -21358,7 +21396,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -21457,7 +21495,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -21479,7 +21517,7 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -21556,7 +21594,7 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -21567,7 +21605,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E82" t="s">
         <v>250</v>
@@ -21650,7 +21688,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -21661,7 +21699,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -21697,7 +21735,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -21722,10 +21760,10 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E95" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -21791,7 +21829,7 @@
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -21915,10 +21953,10 @@
         <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -21929,7 +21967,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -21943,7 +21981,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -21957,7 +21995,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -21971,7 +22009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -21982,7 +22020,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -21993,7 +22031,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -22004,7 +22042,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -22015,7 +22053,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -22026,7 +22064,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -22037,7 +22075,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -22048,7 +22086,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -22059,7 +22097,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -22069,11 +22107,11 @@
       <c r="C125" t="s">
         <v>299</v>
       </c>
-      <c r="F125" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -22084,7 +22122,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -22098,7 +22136,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -22109,7 +22147,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -22120,7 +22158,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -22131,7 +22169,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -22145,7 +22183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -22156,7 +22194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -22164,10 +22202,10 @@
         <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -22180,11 +22218,11 @@
       <c r="E134" t="s">
         <v>594</v>
       </c>
-      <c r="F134" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -22195,7 +22233,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22206,7 +22244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22217,7 +22255,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22228,7 +22266,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22239,7 +22277,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22250,7 +22288,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22261,7 +22299,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22275,7 +22313,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22286,7 +22324,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -22300,7 +22338,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -22310,11 +22348,11 @@
       <c r="C145" t="s">
         <v>488</v>
       </c>
-      <c r="F145" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -22325,7 +22363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -22339,7 +22377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -22353,7 +22391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -22367,7 +22405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -22378,7 +22416,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -22392,7 +22430,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -22403,13 +22441,13 @@
         <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>848</v>
-      </c>
-      <c r="F152" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="G152" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>154</v>
       </c>
@@ -22420,7 +22458,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>155</v>
       </c>
@@ -22430,11 +22468,11 @@
       <c r="C154" t="s">
         <v>325</v>
       </c>
-      <c r="F154" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>156</v>
       </c>
@@ -22445,7 +22483,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>157</v>
       </c>
@@ -22453,10 +22491,10 @@
         <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>158</v>
       </c>
@@ -22464,7 +22502,7 @@
         <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D157" t="s">
         <v>326</v>
@@ -22485,10 +22523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22536,10 +22574,10 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H2" t="s">
         <v>735</v>
-      </c>
-      <c r="H2" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -22610,10 +22648,10 @@
         <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -22624,7 +22662,7 @@
         <v>590</v>
       </c>
       <c r="E7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F7" t="s">
         <v>591</v>
@@ -22649,137 +22687,137 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" t="s">
         <v>604</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>605</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>606</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>607</v>
-      </c>
-      <c r="H9" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>873</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>631</v>
-      </c>
-      <c r="G10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" t="s">
-        <v>431</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>630</v>
+      </c>
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>631</v>
-      </c>
-      <c r="G12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" t="s">
-        <v>431</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>630</v>
+      </c>
+      <c r="G13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>608</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" t="s">
-        <v>631</v>
-      </c>
-      <c r="G15" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" t="s">
-        <v>431</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>806</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>630</v>
+      </c>
+      <c r="G16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>805</v>
       </c>
       <c r="E17" t="s">
         <v>259</v>
@@ -22790,221 +22828,212 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>715</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>716</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>717</v>
-      </c>
-      <c r="G18" t="s">
-        <v>718</v>
-      </c>
-      <c r="H18" t="s">
-        <v>719</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>596</v>
+        <v>714</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>715</v>
       </c>
       <c r="F19" t="s">
-        <v>597</v>
+        <v>716</v>
       </c>
       <c r="G19" t="s">
-        <v>598</v>
+        <v>717</v>
+      </c>
+      <c r="H19" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>596</v>
+      </c>
+      <c r="E20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>857</v>
-      </c>
-      <c r="E36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="E37" t="s">
-        <v>828</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>829</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>611</v>
+        <v>826</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>827</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" t="s">
-        <v>122</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -23012,170 +23041,179 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>856</v>
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>610</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>124</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
+        <v>854</v>
+      </c>
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>701</v>
-      </c>
-      <c r="E41" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>706</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>61</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>62</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s">
-        <v>762</v>
-      </c>
-      <c r="E49" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>247</v>
+      </c>
+      <c r="G50" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E51" t="s">
         <v>217</v>
@@ -23186,356 +23224,356 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>760</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
-      </c>
-      <c r="G52" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>548</v>
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" t="s">
+        <v>401</v>
+      </c>
+      <c r="G53" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>68</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" t="s">
-        <v>27</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>739</v>
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>740</v>
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
+        <v>738</v>
+      </c>
+      <c r="E56" t="s">
         <v>739</v>
-      </c>
-      <c r="E56" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>743</v>
+        <v>738</v>
+      </c>
+      <c r="E57" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>714</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>457</v>
+        <v>713</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>457</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F62" t="s">
-        <v>722</v>
-      </c>
-      <c r="G62" t="s">
-        <v>206</v>
-      </c>
-      <c r="H62" t="s">
-        <v>281</v>
-      </c>
-      <c r="I62" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>723</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>721</v>
+      </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" t="s">
+        <v>281</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>722</v>
+      </c>
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>79</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>327</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>80</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>329</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>217</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>81</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>547</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" t="s">
-        <v>282</v>
-      </c>
-      <c r="G67" t="s">
-        <v>283</v>
-      </c>
-      <c r="H67" t="s">
-        <v>568</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>549</v>
+        <v>547</v>
+      </c>
+      <c r="E68" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" t="s">
-        <v>217</v>
-      </c>
-      <c r="F69" t="s">
-        <v>389</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>765</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
         <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>813</v>
+        <v>764</v>
+      </c>
+      <c r="E71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>750</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>840</v>
-      </c>
-      <c r="E73" t="s">
-        <v>839</v>
-      </c>
-      <c r="F73" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>90</v>
-      </c>
-      <c r="D74" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>838</v>
+      </c>
+      <c r="E74" t="s">
+        <v>837</v>
+      </c>
+      <c r="F74" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>90</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>102</v>
+      <c r="D75" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>91</v>
-      </c>
-      <c r="D76" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>91</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>88</v>
@@ -23543,72 +23581,72 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>96</v>
-      </c>
-      <c r="C80" t="s">
-        <v>216</v>
-      </c>
-      <c r="E80" t="s">
-        <v>217</v>
-      </c>
-      <c r="F80" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>216</v>
+      </c>
+      <c r="E81" t="s">
+        <v>217</v>
+      </c>
+      <c r="F81" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>101</v>
-      </c>
-      <c r="C85" t="s">
-        <v>771</v>
-      </c>
-      <c r="E85" t="s">
-        <v>217</v>
-      </c>
-      <c r="F85" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="E86" t="s">
         <v>217</v>
@@ -23619,166 +23657,166 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>706</v>
-      </c>
-      <c r="D87" t="s">
-        <v>74</v>
+        <v>741</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="F87" t="s">
-        <v>703</v>
-      </c>
-      <c r="G87" t="s">
-        <v>702</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>752</v>
+        <v>705</v>
+      </c>
+      <c r="D88" t="s">
+        <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>218</v>
+        <v>702</v>
+      </c>
+      <c r="G88" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>105</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>751</v>
+      </c>
+      <c r="E89" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>711</v>
-      </c>
-      <c r="E90" t="s">
-        <v>712</v>
-      </c>
-      <c r="F90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" t="s">
-        <v>713</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>759</v>
+        <v>710</v>
+      </c>
+      <c r="E91" t="s">
+        <v>711</v>
+      </c>
+      <c r="F91" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" t="s">
-        <v>302</v>
-      </c>
-      <c r="F92" t="s">
-        <v>303</v>
-      </c>
-      <c r="G92" t="s">
-        <v>304</v>
-      </c>
-      <c r="H92" t="s">
-        <v>305</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>842</v>
+        <v>306</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
+        <v>303</v>
+      </c>
+      <c r="G93" t="s">
+        <v>304</v>
+      </c>
+      <c r="H93" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>482</v>
+        <v>840</v>
       </c>
       <c r="E94" t="s">
         <v>217</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>113</v>
-      </c>
-      <c r="C97" t="s">
-        <v>851</v>
-      </c>
-      <c r="E97" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E98" t="s">
         <v>217</v>
       </c>
-      <c r="F98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="E99" t="s">
         <v>217</v>
@@ -23787,26 +23825,26 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="F100" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E101" t="s">
         <v>259</v>
@@ -23817,10 +23855,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="E102" t="s">
         <v>259</v>
@@ -23831,7 +23869,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
         <v>811</v>
@@ -23845,121 +23883,135 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>122</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
-      </c>
-      <c r="D104" t="s">
-        <v>71</v>
+        <v>810</v>
       </c>
       <c r="E104" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>595</v>
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>127</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" t="s">
-        <v>26</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>803</v>
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="F107" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>751</v>
+        <v>802</v>
+      </c>
+      <c r="E108" t="s">
+        <v>217</v>
+      </c>
+      <c r="F108" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>753</v>
-      </c>
-      <c r="E109" t="s">
-        <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
+        <v>750</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>589</v>
+        <v>752</v>
       </c>
       <c r="E110" t="s">
+        <v>217</v>
+      </c>
+      <c r="F110" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
-        <v>559</v>
+        <v>589</v>
+      </c>
+      <c r="E111" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
+        <v>137</v>
+      </c>
+      <c r="C112" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>138</v>
       </c>
-      <c r="C112" t="s">
-        <v>863</v>
-      </c>
-      <c r="D112" t="s">
-        <v>864</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C113" t="s">
+        <v>861</v>
+      </c>
+      <c r="D113" t="s">
+        <v>862</v>
+      </c>
+      <c r="E113" t="s">
         <v>217</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>218</v>
       </c>
     </row>
@@ -23974,10 +24026,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23998,7 +24050,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -24027,34 +24079,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -24062,239 +24114,279 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>563</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>819</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>695</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>694</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>879</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>832</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>610</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>560</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>720</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>833</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>562</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>584</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>569</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>69</v>
       </c>
-      <c r="B39" t="s">
-        <v>726</v>
+      <c r="B44" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -24309,8 +24401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24338,7 +24430,7 @@
         <v>383</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>51</v>
@@ -24355,7 +24447,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -24369,7 +24461,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -24394,10 +24486,10 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -24417,7 +24509,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -24453,7 +24545,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -24467,7 +24559,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -24492,10 +24584,10 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G12" t="s">
         <v>68</v>
@@ -24711,7 +24803,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -24722,7 +24814,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -24744,7 +24836,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -24755,7 +24847,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -24780,7 +24872,7 @@
         <v>381</v>
       </c>
       <c r="D36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -24791,7 +24883,7 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -24802,7 +24894,7 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -24816,7 +24908,7 @@
         <v>379</v>
       </c>
       <c r="D39" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -24830,7 +24922,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -24844,7 +24936,7 @@
         <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -24880,7 +24972,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -24894,7 +24986,7 @@
         <v>357</v>
       </c>
       <c r="D45" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -24930,7 +25022,7 @@
         <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -24996,7 +25088,7 @@
         <v>446</v>
       </c>
       <c r="C54" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -25010,7 +25102,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -25027,7 +25119,7 @@
         <v>453</v>
       </c>
       <c r="E56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -25129,7 +25221,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -25151,10 +25243,10 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D67" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -25179,7 +25271,7 @@
         <v>372</v>
       </c>
       <c r="D69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -25212,7 +25304,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -25226,7 +25318,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -25240,7 +25332,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -25287,10 +25379,10 @@
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E78" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -25304,10 +25396,10 @@
         <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E79" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -25332,7 +25424,7 @@
         <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -25500,7 +25592,7 @@
         <v>362</v>
       </c>
       <c r="D96" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -25808,7 +25900,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -25819,7 +25911,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -25830,7 +25922,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -25841,7 +25933,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -25979,7 +26071,7 @@
         <v>360</v>
       </c>
       <c r="C139" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -25990,7 +26082,7 @@
         <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -26012,7 +26104,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -26023,7 +26115,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -26034,7 +26126,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -26045,7 +26137,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -26056,7 +26148,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -26067,7 +26159,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -26078,7 +26170,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -26089,7 +26181,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -26111,10 +26203,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D151" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -26125,7 +26217,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -26147,7 +26239,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -26444,10 +26536,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D181" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -26472,7 +26564,7 @@
         <v>457</v>
       </c>
       <c r="D183" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -26538,7 +26630,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -26549,7 +26641,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -26560,7 +26652,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -26571,7 +26663,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -26582,7 +26674,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -26593,7 +26685,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -26604,7 +26696,7 @@
         <v>215</v>
       </c>
       <c r="C195" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -26615,7 +26707,7 @@
         <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -26626,7 +26718,7 @@
         <v>217</v>
       </c>
       <c r="C197" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -26637,7 +26729,7 @@
         <v>218</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -26648,7 +26740,7 @@
         <v>219</v>
       </c>
       <c r="C199" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -26659,7 +26751,7 @@
         <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -26736,7 +26828,7 @@
         <v>367</v>
       </c>
       <c r="C207" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -26747,7 +26839,7 @@
         <v>368</v>
       </c>
       <c r="C208" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -26758,7 +26850,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -26769,7 +26861,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -26780,7 +26872,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -26791,7 +26883,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -26802,7 +26894,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -26813,7 +26905,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -26838,10 +26930,10 @@
         <v>447</v>
       </c>
       <c r="D216" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E216" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -26987,7 +27079,7 @@
         <v>551</v>
       </c>
       <c r="D229" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -27045,7 +27137,7 @@
         <v>557</v>
       </c>
       <c r="D234" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -27243,7 +27335,7 @@
         <v>177</v>
       </c>
       <c r="C252" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -27254,7 +27346,7 @@
         <v>369</v>
       </c>
       <c r="C253" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -27265,7 +27357,7 @@
         <v>370</v>
       </c>
       <c r="C254" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -27276,7 +27368,7 @@
         <v>371</v>
       </c>
       <c r="C255" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -27298,7 +27390,7 @@
         <v>373</v>
       </c>
       <c r="C257" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -27309,7 +27401,7 @@
         <v>374</v>
       </c>
       <c r="C258" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -27320,7 +27412,7 @@
         <v>375</v>
       </c>
       <c r="C259" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -27331,7 +27423,7 @@
         <v>376</v>
       </c>
       <c r="C260" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -27342,7 +27434,7 @@
         <v>377</v>
       </c>
       <c r="C261" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -27353,7 +27445,7 @@
         <v>412</v>
       </c>
       <c r="C262" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -27375,7 +27467,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -27386,7 +27478,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -27408,7 +27500,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -27419,7 +27511,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -27488,7 +27580,7 @@
         <v>426</v>
       </c>
       <c r="D274" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -27557,7 +27649,7 @@
         <v>426</v>
       </c>
       <c r="D280" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -27571,7 +27663,7 @@
         <v>429</v>
       </c>
       <c r="D281" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -27582,7 +27674,7 @@
         <v>239</v>
       </c>
       <c r="C282" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -27659,10 +27751,10 @@
         <v>77</v>
       </c>
       <c r="C289" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D289" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -27673,7 +27765,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -27717,7 +27809,7 @@
         <v>306</v>
       </c>
       <c r="C294" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -27739,7 +27831,7 @@
         <v>308</v>
       </c>
       <c r="C296" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -27907,10 +27999,10 @@
         <v>67</v>
       </c>
       <c r="C311" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D311" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -27921,7 +28013,7 @@
         <v>68</v>
       </c>
       <c r="C312" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -27943,10 +28035,10 @@
         <v>211</v>
       </c>
       <c r="C314" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D314" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -27957,7 +28049,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -27968,7 +28060,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -27979,7 +28071,7 @@
         <v>292</v>
       </c>
       <c r="C317" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -28023,7 +28115,7 @@
         <v>232</v>
       </c>
       <c r="C321" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -28034,7 +28126,7 @@
         <v>402</v>
       </c>
       <c r="C322" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -28056,7 +28148,7 @@
         <v>404</v>
       </c>
       <c r="C324" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -28067,7 +28159,7 @@
         <v>405</v>
       </c>
       <c r="C325" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -28078,7 +28170,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -28089,7 +28181,7 @@
         <v>407</v>
       </c>
       <c r="C327" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -28100,7 +28192,7 @@
         <v>32</v>
       </c>
       <c r="C328" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -28111,10 +28203,10 @@
         <v>33</v>
       </c>
       <c r="C329" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D329" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -28125,7 +28217,7 @@
         <v>213</v>
       </c>
       <c r="C330" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -28136,7 +28228,7 @@
         <v>267</v>
       </c>
       <c r="C331" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -28367,7 +28459,7 @@
         <v>203</v>
       </c>
       <c r="C352" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -28384,7 +28476,7 @@
         <v>570</v>
       </c>
       <c r="E353" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -28401,7 +28493,7 @@
         <v>570</v>
       </c>
       <c r="E354" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -28418,7 +28510,7 @@
         <v>570</v>
       </c>
       <c r="E355" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -28435,7 +28527,7 @@
         <v>570</v>
       </c>
       <c r="E356" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -28452,7 +28544,7 @@
         <v>570</v>
       </c>
       <c r="E357" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -28562,7 +28654,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -28573,7 +28665,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -28584,7 +28676,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -28595,7 +28687,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -28606,7 +28698,7 @@
         <v>98</v>
       </c>
       <c r="C371" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -28628,7 +28720,7 @@
         <v>314</v>
       </c>
       <c r="C373" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -28650,7 +28742,7 @@
         <v>63</v>
       </c>
       <c r="C375" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -28661,7 +28753,7 @@
         <v>64</v>
       </c>
       <c r="C376" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -28705,7 +28797,7 @@
         <v>283</v>
       </c>
       <c r="C380" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -28716,7 +28808,7 @@
         <v>284</v>
       </c>
       <c r="C381" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -28727,7 +28819,7 @@
         <v>285</v>
       </c>
       <c r="C382" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -28749,7 +28841,7 @@
         <v>441</v>
       </c>
       <c r="C384" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -28859,7 +28951,7 @@
         <v>227</v>
       </c>
       <c r="C394" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -28870,7 +28962,7 @@
         <v>228</v>
       </c>
       <c r="C395" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -28881,7 +28973,7 @@
         <v>229</v>
       </c>
       <c r="C396" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -28892,7 +28984,7 @@
         <v>230</v>
       </c>
       <c r="C397" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -28906,7 +28998,7 @@
         <v>546</v>
       </c>
       <c r="D398" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -28944,7 +29036,7 @@
         <v>287</v>
       </c>
       <c r="C402" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -28966,7 +29058,7 @@
         <v>289</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -29254,7 +29346,7 @@
         <v>442</v>
       </c>
       <c r="C431" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -29265,7 +29357,7 @@
         <v>443</v>
       </c>
       <c r="C432" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -29276,7 +29368,7 @@
         <v>444</v>
       </c>
       <c r="C433" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -29472,16 +29564,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -29489,13 +29581,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" t="s">
         <v>809</v>
-      </c>
-      <c r="D2" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -29503,10 +29595,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="14172" windowHeight="7632" tabRatio="702" activeTab="4"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="14172" windowHeight="1872" tabRatio="702" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4252,7 +4252,7 @@
   <dimension ref="A1:XFD157"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22525,8 +22525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24028,8 +24028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24401,8 +24401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:XFD413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Release/ManiacMansion.xlsx
+++ b/Release/ManiacMansion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\Projects\Maniac.Mansion.Disassembly\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Maniac.Mansion.Disassembly\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="14172" windowHeight="1872" tabRatio="702" activeTab="5"/>
+    <workbookView xWindow="1932" yWindow="0" windowWidth="8712" windowHeight="1260" tabRatio="702" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="883">
   <si>
     <t>Purpose</t>
   </si>
@@ -2677,6 +2677,15 @@
   </si>
   <si>
     <t>Dial Tone</t>
+  </si>
+  <si>
+    <t>Tentacle Movement</t>
+  </si>
+  <si>
+    <t>Unk - weird noise</t>
+  </si>
+  <si>
+    <t>Record High Pitch</t>
   </si>
 </sst>
 </file>
@@ -4251,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22525,7 +22534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
@@ -24026,15 +24035,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -24165,7 +24175,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
@@ -24173,7 +24183,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22</v>
       </c>
@@ -24181,7 +24191,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23</v>
       </c>
@@ -24189,7 +24199,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -24197,7 +24207,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>25</v>
       </c>
@@ -24205,7 +24215,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -24213,7 +24223,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>27</v>
       </c>
@@ -24221,7 +24231,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -24229,163 +24239,215 @@
         <v>609</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>831</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>562</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>724</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>569</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>612</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>725</v>
       </c>
     </row>
@@ -24401,7 +24463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+    <sheetView topLeftCell="A385" workbookViewId="0">
       <selection activeCell="A402" sqref="A402:XFD413"/>
     </sheetView>
   </sheetViews>
